--- a/xlsx/亞里士多德_intext.xlsx
+++ b/xlsx/亞里士多德_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2352">
   <si>
     <t>亞里士多德</t>
   </si>
@@ -29,7 +29,7 @@
     <t>馬其頓王國</t>
   </si>
   <si>
-    <t>政策_政策_政治學_亞里士多德</t>
+    <t>体育运动_体育运动_古罗马_亞里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -4026,6 +4026,12 @@
   </si>
   <si>
     <t>邱奇-图灵论题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%B3%BB%E7%B5%B1%E7%9B%B8%E5%AE%B9%E6%80%A7</t>
+  </si>
+  <si>
+    <t>形式系統相容性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%9F%BA%E7%A1%80</t>
@@ -7413,7 +7419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1273"/>
+  <dimension ref="A1:I1274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7786,7 +7792,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -18806,7 +18812,7 @@
         <v>764</v>
       </c>
       <c r="G393" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -27825,7 +27831,7 @@
         <v>1346</v>
       </c>
       <c r="G704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H704" t="s">
         <v>4</v>
@@ -27854,7 +27860,7 @@
         <v>1348</v>
       </c>
       <c r="G705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H705" t="s">
         <v>4</v>
@@ -27912,7 +27918,7 @@
         <v>1352</v>
       </c>
       <c r="G707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -27970,7 +27976,7 @@
         <v>1356</v>
       </c>
       <c r="G709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -27999,7 +28005,7 @@
         <v>1358</v>
       </c>
       <c r="G710" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -28028,7 +28034,7 @@
         <v>1360</v>
       </c>
       <c r="G711" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -28057,7 +28063,7 @@
         <v>1362</v>
       </c>
       <c r="G712" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -28086,7 +28092,7 @@
         <v>1364</v>
       </c>
       <c r="G713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -28115,7 +28121,7 @@
         <v>1366</v>
       </c>
       <c r="G714" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -28144,7 +28150,7 @@
         <v>1368</v>
       </c>
       <c r="G715" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -28173,7 +28179,7 @@
         <v>1370</v>
       </c>
       <c r="G716" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H716" t="s">
         <v>4</v>
@@ -28202,7 +28208,7 @@
         <v>1372</v>
       </c>
       <c r="G717" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -28231,7 +28237,7 @@
         <v>1374</v>
       </c>
       <c r="G718" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -28283,13 +28289,13 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>193</v>
+        <v>1377</v>
       </c>
       <c r="F720" t="s">
-        <v>194</v>
+        <v>1378</v>
       </c>
       <c r="G720" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -28312,10 +28318,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1377</v>
+        <v>193</v>
       </c>
       <c r="F721" t="s">
-        <v>1378</v>
+        <v>194</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -28376,7 +28382,7 @@
         <v>1382</v>
       </c>
       <c r="G723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -28405,7 +28411,7 @@
         <v>1384</v>
       </c>
       <c r="G724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
@@ -28782,7 +28788,7 @@
         <v>1410</v>
       </c>
       <c r="G737" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H737" t="s">
         <v>4</v>
@@ -28811,7 +28817,7 @@
         <v>1412</v>
       </c>
       <c r="G738" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H738" t="s">
         <v>4</v>
@@ -28869,7 +28875,7 @@
         <v>1416</v>
       </c>
       <c r="G740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -28927,7 +28933,7 @@
         <v>1420</v>
       </c>
       <c r="G742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -29043,7 +29049,7 @@
         <v>1428</v>
       </c>
       <c r="G746" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H746" t="s">
         <v>4</v>
@@ -29072,7 +29078,7 @@
         <v>1430</v>
       </c>
       <c r="G747" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H747" t="s">
         <v>4</v>
@@ -29101,7 +29107,7 @@
         <v>1432</v>
       </c>
       <c r="G748" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -29130,7 +29136,7 @@
         <v>1434</v>
       </c>
       <c r="G749" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -29240,10 +29246,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>191</v>
+        <v>1441</v>
       </c>
       <c r="F753" t="s">
-        <v>192</v>
+        <v>1442</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -29269,10 +29275,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1441</v>
+        <v>191</v>
       </c>
       <c r="F754" t="s">
-        <v>1442</v>
+        <v>192</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -29507,7 +29513,7 @@
         <v>1458</v>
       </c>
       <c r="G762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -29536,7 +29542,7 @@
         <v>1460</v>
       </c>
       <c r="G763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -29710,7 +29716,7 @@
         <v>1472</v>
       </c>
       <c r="G769" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H769" t="s">
         <v>4</v>
@@ -29739,7 +29745,7 @@
         <v>1474</v>
       </c>
       <c r="G770" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -29768,7 +29774,7 @@
         <v>1476</v>
       </c>
       <c r="G771" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H771" t="s">
         <v>4</v>
@@ -29797,7 +29803,7 @@
         <v>1478</v>
       </c>
       <c r="G772" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H772" t="s">
         <v>4</v>
@@ -29820,10 +29826,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>991</v>
+        <v>1479</v>
       </c>
       <c r="F773" t="s">
-        <v>992</v>
+        <v>1480</v>
       </c>
       <c r="G773" t="n">
         <v>3</v>
@@ -29849,13 +29855,13 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1479</v>
+        <v>991</v>
       </c>
       <c r="F774" t="s">
-        <v>1480</v>
+        <v>992</v>
       </c>
       <c r="G774" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -29884,7 +29890,7 @@
         <v>1482</v>
       </c>
       <c r="G775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H775" t="s">
         <v>4</v>
@@ -29913,7 +29919,7 @@
         <v>1484</v>
       </c>
       <c r="G776" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H776" t="s">
         <v>4</v>
@@ -29942,7 +29948,7 @@
         <v>1486</v>
       </c>
       <c r="G777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H777" t="s">
         <v>4</v>
@@ -29971,7 +29977,7 @@
         <v>1488</v>
       </c>
       <c r="G778" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -30058,7 +30064,7 @@
         <v>1494</v>
       </c>
       <c r="G781" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -30087,7 +30093,7 @@
         <v>1496</v>
       </c>
       <c r="G782" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30110,10 +30116,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>995</v>
+        <v>1497</v>
       </c>
       <c r="F783" t="s">
-        <v>996</v>
+        <v>1498</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -30139,13 +30145,13 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1497</v>
+        <v>995</v>
       </c>
       <c r="F784" t="s">
-        <v>1498</v>
+        <v>996</v>
       </c>
       <c r="G784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -30174,7 +30180,7 @@
         <v>1500</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -30197,13 +30203,13 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>943</v>
+        <v>1501</v>
       </c>
       <c r="F786" t="s">
-        <v>944</v>
+        <v>1502</v>
       </c>
       <c r="G786" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -30226,13 +30232,13 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1501</v>
+        <v>943</v>
       </c>
       <c r="F787" t="s">
-        <v>1502</v>
+        <v>944</v>
       </c>
       <c r="G787" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -30261,7 +30267,7 @@
         <v>1504</v>
       </c>
       <c r="G788" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -30290,7 +30296,7 @@
         <v>1506</v>
       </c>
       <c r="G789" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -30313,13 +30319,13 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>967</v>
+        <v>1507</v>
       </c>
       <c r="F790" t="s">
-        <v>968</v>
+        <v>1508</v>
       </c>
       <c r="G790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -30342,13 +30348,13 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1507</v>
+        <v>967</v>
       </c>
       <c r="F791" t="s">
-        <v>1508</v>
+        <v>968</v>
       </c>
       <c r="G791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -30406,7 +30412,7 @@
         <v>1512</v>
       </c>
       <c r="G793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30429,13 +30435,13 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="F794" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -30464,7 +30470,7 @@
         <v>1514</v>
       </c>
       <c r="G795" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -30493,7 +30499,7 @@
         <v>1516</v>
       </c>
       <c r="G796" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30551,7 +30557,7 @@
         <v>1520</v>
       </c>
       <c r="G798" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -30580,7 +30586,7 @@
         <v>1522</v>
       </c>
       <c r="G799" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -30638,7 +30644,7 @@
         <v>1526</v>
       </c>
       <c r="G801" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -30667,7 +30673,7 @@
         <v>1528</v>
       </c>
       <c r="G802" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H802" t="s">
         <v>4</v>
@@ -30725,7 +30731,7 @@
         <v>1532</v>
       </c>
       <c r="G804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -30754,7 +30760,7 @@
         <v>1534</v>
       </c>
       <c r="G805" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -30777,10 +30783,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1501</v>
+        <v>1535</v>
       </c>
       <c r="F806" t="s">
-        <v>1502</v>
+        <v>1536</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -30806,13 +30812,13 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>283</v>
+        <v>1503</v>
       </c>
       <c r="F807" t="s">
-        <v>284</v>
+        <v>1504</v>
       </c>
       <c r="G807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H807" t="s">
         <v>4</v>
@@ -30835,13 +30841,13 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1535</v>
+        <v>283</v>
       </c>
       <c r="F808" t="s">
-        <v>1536</v>
+        <v>284</v>
       </c>
       <c r="G808" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H808" t="s">
         <v>4</v>
@@ -30893,10 +30899,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>927</v>
+        <v>1539</v>
       </c>
       <c r="F810" t="s">
-        <v>928</v>
+        <v>1540</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -30922,10 +30928,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1539</v>
+        <v>927</v>
       </c>
       <c r="F811" t="s">
-        <v>1540</v>
+        <v>928</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -30951,10 +30957,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>285</v>
+        <v>1541</v>
       </c>
       <c r="F812" t="s">
-        <v>286</v>
+        <v>1542</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -30980,10 +30986,10 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1541</v>
+        <v>285</v>
       </c>
       <c r="F813" t="s">
-        <v>1542</v>
+        <v>286</v>
       </c>
       <c r="G813" t="n">
         <v>1</v>
@@ -31009,10 +31015,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>995</v>
+        <v>1543</v>
       </c>
       <c r="F814" t="s">
-        <v>996</v>
+        <v>1544</v>
       </c>
       <c r="G814" t="n">
         <v>1</v>
@@ -31038,10 +31044,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1223</v>
+        <v>995</v>
       </c>
       <c r="F815" t="s">
-        <v>1224</v>
+        <v>996</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -31067,10 +31073,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1543</v>
+        <v>1223</v>
       </c>
       <c r="F816" t="s">
-        <v>1544</v>
+        <v>1224</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -31096,10 +31102,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1225</v>
+        <v>1545</v>
       </c>
       <c r="F817" t="s">
-        <v>1226</v>
+        <v>1546</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -31125,10 +31131,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F818" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -31154,10 +31160,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>295</v>
+        <v>1227</v>
       </c>
       <c r="F819" t="s">
-        <v>296</v>
+        <v>1228</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -31183,10 +31189,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1545</v>
+        <v>295</v>
       </c>
       <c r="F820" t="s">
-        <v>1546</v>
+        <v>296</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -31212,10 +31218,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1021</v>
+        <v>1547</v>
       </c>
       <c r="F821" t="s">
-        <v>1022</v>
+        <v>1548</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -31241,10 +31247,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>967</v>
+        <v>1021</v>
       </c>
       <c r="F822" t="s">
-        <v>968</v>
+        <v>1022</v>
       </c>
       <c r="G822" t="n">
         <v>1</v>
@@ -31270,10 +31276,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1025</v>
+        <v>967</v>
       </c>
       <c r="F823" t="s">
-        <v>1026</v>
+        <v>968</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -31299,10 +31305,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1547</v>
+        <v>1025</v>
       </c>
       <c r="F824" t="s">
-        <v>1548</v>
+        <v>1026</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -31334,7 +31340,7 @@
         <v>1550</v>
       </c>
       <c r="G825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -31357,13 +31363,13 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1229</v>
+        <v>1551</v>
       </c>
       <c r="F826" t="s">
-        <v>1230</v>
+        <v>1552</v>
       </c>
       <c r="G826" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -31386,10 +31392,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1551</v>
+        <v>1229</v>
       </c>
       <c r="F827" t="s">
-        <v>1552</v>
+        <v>1230</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -31415,10 +31421,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1063</v>
+        <v>1553</v>
       </c>
       <c r="F828" t="s">
-        <v>1064</v>
+        <v>1554</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -31444,10 +31450,10 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F829" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G829" t="n">
         <v>1</v>
@@ -31473,10 +31479,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1553</v>
+        <v>1061</v>
       </c>
       <c r="F830" t="s">
-        <v>1554</v>
+        <v>1062</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -31508,7 +31514,7 @@
         <v>1556</v>
       </c>
       <c r="G831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H831" t="s">
         <v>4</v>
@@ -31531,13 +31537,13 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1047</v>
+        <v>1557</v>
       </c>
       <c r="F832" t="s">
-        <v>1048</v>
+        <v>1558</v>
       </c>
       <c r="G832" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -31560,10 +31566,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F833" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -31589,10 +31595,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F834" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G834" t="n">
         <v>1</v>
@@ -31618,10 +31624,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1557</v>
+        <v>1055</v>
       </c>
       <c r="F835" t="s">
-        <v>1558</v>
+        <v>1056</v>
       </c>
       <c r="G835" t="n">
         <v>1</v>
@@ -31676,10 +31682,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1235</v>
+        <v>1561</v>
       </c>
       <c r="F837" t="s">
-        <v>1236</v>
+        <v>1562</v>
       </c>
       <c r="G837" t="n">
         <v>1</v>
@@ -31705,13 +31711,13 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1561</v>
+        <v>1235</v>
       </c>
       <c r="F838" t="s">
-        <v>1562</v>
+        <v>1236</v>
       </c>
       <c r="G838" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -31740,7 +31746,7 @@
         <v>1564</v>
       </c>
       <c r="G839" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -31763,13 +31769,13 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>827</v>
+        <v>1565</v>
       </c>
       <c r="F840" t="s">
-        <v>828</v>
+        <v>1566</v>
       </c>
       <c r="G840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -31792,13 +31798,13 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1565</v>
+        <v>827</v>
       </c>
       <c r="F841" t="s">
-        <v>1566</v>
+        <v>828</v>
       </c>
       <c r="G841" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31827,7 +31833,7 @@
         <v>1568</v>
       </c>
       <c r="G842" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H842" t="s">
         <v>4</v>
@@ -31885,7 +31891,7 @@
         <v>1572</v>
       </c>
       <c r="G844" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H844" t="s">
         <v>4</v>
@@ -31914,7 +31920,7 @@
         <v>1574</v>
       </c>
       <c r="G845" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -31943,7 +31949,7 @@
         <v>1576</v>
       </c>
       <c r="G846" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H846" t="s">
         <v>4</v>
@@ -31972,7 +31978,7 @@
         <v>1578</v>
       </c>
       <c r="G847" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H847" t="s">
         <v>4</v>
@@ -32001,7 +32007,7 @@
         <v>1580</v>
       </c>
       <c r="G848" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H848" t="s">
         <v>4</v>
@@ -32030,7 +32036,7 @@
         <v>1582</v>
       </c>
       <c r="G849" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -32059,7 +32065,7 @@
         <v>1584</v>
       </c>
       <c r="G850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H850" t="s">
         <v>4</v>
@@ -32146,7 +32152,7 @@
         <v>1590</v>
       </c>
       <c r="G853" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H853" t="s">
         <v>4</v>
@@ -32175,7 +32181,7 @@
         <v>1592</v>
       </c>
       <c r="G854" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H854" t="s">
         <v>4</v>
@@ -32233,7 +32239,7 @@
         <v>1596</v>
       </c>
       <c r="G856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H856" t="s">
         <v>4</v>
@@ -32262,7 +32268,7 @@
         <v>1598</v>
       </c>
       <c r="G857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H857" t="s">
         <v>4</v>
@@ -32285,10 +32291,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>847</v>
+        <v>1599</v>
       </c>
       <c r="F858" t="s">
-        <v>848</v>
+        <v>1600</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -32314,10 +32320,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1599</v>
+        <v>847</v>
       </c>
       <c r="F859" t="s">
-        <v>1600</v>
+        <v>848</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -32349,7 +32355,7 @@
         <v>1602</v>
       </c>
       <c r="G860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H860" t="s">
         <v>4</v>
@@ -32407,7 +32413,7 @@
         <v>1606</v>
       </c>
       <c r="G862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H862" t="s">
         <v>4</v>
@@ -32465,7 +32471,7 @@
         <v>1610</v>
       </c>
       <c r="G864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H864" t="s">
         <v>4</v>
@@ -32488,10 +32494,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>189</v>
+        <v>1611</v>
       </c>
       <c r="F865" t="s">
-        <v>190</v>
+        <v>1612</v>
       </c>
       <c r="G865" t="n">
         <v>2</v>
@@ -32517,13 +32523,13 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1611</v>
+        <v>189</v>
       </c>
       <c r="F866" t="s">
-        <v>1612</v>
+        <v>190</v>
       </c>
       <c r="G866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -32610,7 +32616,7 @@
         <v>1618</v>
       </c>
       <c r="G869" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -32639,7 +32645,7 @@
         <v>1620</v>
       </c>
       <c r="G870" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H870" t="s">
         <v>4</v>
@@ -32668,7 +32674,7 @@
         <v>1622</v>
       </c>
       <c r="G871" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H871" t="s">
         <v>4</v>
@@ -32697,7 +32703,7 @@
         <v>1624</v>
       </c>
       <c r="G872" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H872" t="s">
         <v>4</v>
@@ -32726,7 +32732,7 @@
         <v>1626</v>
       </c>
       <c r="G873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H873" t="s">
         <v>4</v>
@@ -32784,7 +32790,7 @@
         <v>1630</v>
       </c>
       <c r="G875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H875" t="s">
         <v>4</v>
@@ -32813,7 +32819,7 @@
         <v>1632</v>
       </c>
       <c r="G876" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H876" t="s">
         <v>4</v>
@@ -32842,7 +32848,7 @@
         <v>1634</v>
       </c>
       <c r="G877" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H877" t="s">
         <v>4</v>
@@ -33045,7 +33051,7 @@
         <v>1648</v>
       </c>
       <c r="G884" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -33074,7 +33080,7 @@
         <v>1650</v>
       </c>
       <c r="G885" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -33103,7 +33109,7 @@
         <v>1652</v>
       </c>
       <c r="G886" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H886" t="s">
         <v>4</v>
@@ -33161,7 +33167,7 @@
         <v>1656</v>
       </c>
       <c r="G888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H888" t="s">
         <v>4</v>
@@ -33219,7 +33225,7 @@
         <v>1660</v>
       </c>
       <c r="G890" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H890" t="s">
         <v>4</v>
@@ -33248,7 +33254,7 @@
         <v>1662</v>
       </c>
       <c r="G891" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -33277,7 +33283,7 @@
         <v>1664</v>
       </c>
       <c r="G892" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H892" t="s">
         <v>4</v>
@@ -33335,7 +33341,7 @@
         <v>1668</v>
       </c>
       <c r="G894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H894" t="s">
         <v>4</v>
@@ -33364,7 +33370,7 @@
         <v>1670</v>
       </c>
       <c r="G895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H895" t="s">
         <v>4</v>
@@ -33393,7 +33399,7 @@
         <v>1672</v>
       </c>
       <c r="G896" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H896" t="s">
         <v>4</v>
@@ -33451,7 +33457,7 @@
         <v>1676</v>
       </c>
       <c r="G898" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H898" t="s">
         <v>4</v>
@@ -33480,7 +33486,7 @@
         <v>1678</v>
       </c>
       <c r="G899" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H899" t="s">
         <v>4</v>
@@ -33509,7 +33515,7 @@
         <v>1680</v>
       </c>
       <c r="G900" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H900" t="s">
         <v>4</v>
@@ -33538,7 +33544,7 @@
         <v>1682</v>
       </c>
       <c r="G901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H901" t="s">
         <v>4</v>
@@ -33567,7 +33573,7 @@
         <v>1684</v>
       </c>
       <c r="G902" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -33590,13 +33596,13 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>751</v>
+        <v>1685</v>
       </c>
       <c r="F903" t="s">
-        <v>752</v>
+        <v>1686</v>
       </c>
       <c r="G903" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H903" t="s">
         <v>4</v>
@@ -33619,13 +33625,13 @@
         <v>903</v>
       </c>
       <c r="E904" t="s">
-        <v>861</v>
+        <v>751</v>
       </c>
       <c r="F904" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="G904" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H904" t="s">
         <v>4</v>
@@ -33648,10 +33654,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1685</v>
+        <v>861</v>
       </c>
       <c r="F905" t="s">
-        <v>1686</v>
+        <v>862</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -33683,7 +33689,7 @@
         <v>1688</v>
       </c>
       <c r="G906" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H906" t="s">
         <v>4</v>
@@ -33712,7 +33718,7 @@
         <v>1690</v>
       </c>
       <c r="G907" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H907" t="s">
         <v>4</v>
@@ -33822,13 +33828,13 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>861</v>
+        <v>1697</v>
       </c>
       <c r="F911" t="s">
-        <v>862</v>
+        <v>1698</v>
       </c>
       <c r="G911" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -33851,10 +33857,10 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1697</v>
+        <v>861</v>
       </c>
       <c r="F912" t="s">
-        <v>1698</v>
+        <v>862</v>
       </c>
       <c r="G912" t="n">
         <v>3</v>
@@ -33880,13 +33886,13 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>749</v>
+        <v>1699</v>
       </c>
       <c r="F913" t="s">
-        <v>750</v>
+        <v>1700</v>
       </c>
       <c r="G913" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H913" t="s">
         <v>4</v>
@@ -33909,10 +33915,10 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1699</v>
+        <v>749</v>
       </c>
       <c r="F914" t="s">
-        <v>1700</v>
+        <v>750</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -34118,7 +34124,7 @@
         <v>1714</v>
       </c>
       <c r="G921" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -34147,7 +34153,7 @@
         <v>1716</v>
       </c>
       <c r="G922" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -34176,7 +34182,7 @@
         <v>1718</v>
       </c>
       <c r="G923" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H923" t="s">
         <v>4</v>
@@ -34199,13 +34205,13 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>883</v>
+        <v>1719</v>
       </c>
       <c r="F924" t="s">
-        <v>884</v>
+        <v>1720</v>
       </c>
       <c r="G924" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -34228,13 +34234,13 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>1719</v>
+        <v>883</v>
       </c>
       <c r="F925" t="s">
-        <v>1720</v>
+        <v>884</v>
       </c>
       <c r="G925" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -34257,10 +34263,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>885</v>
+        <v>1721</v>
       </c>
       <c r="F926" t="s">
-        <v>886</v>
+        <v>1722</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -34286,13 +34292,13 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1687</v>
+        <v>885</v>
       </c>
       <c r="F927" t="s">
-        <v>1688</v>
+        <v>886</v>
       </c>
       <c r="G927" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -34315,13 +34321,13 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>871</v>
+        <v>1689</v>
       </c>
       <c r="F928" t="s">
-        <v>872</v>
+        <v>1690</v>
       </c>
       <c r="G928" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -34344,13 +34350,13 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1721</v>
+        <v>871</v>
       </c>
       <c r="F929" t="s">
-        <v>1722</v>
+        <v>872</v>
       </c>
       <c r="G929" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -34379,7 +34385,7 @@
         <v>1724</v>
       </c>
       <c r="G930" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -34402,10 +34408,10 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>897</v>
+        <v>1725</v>
       </c>
       <c r="F931" t="s">
-        <v>898</v>
+        <v>1726</v>
       </c>
       <c r="G931" t="n">
         <v>1</v>
@@ -34431,13 +34437,13 @@
         <v>931</v>
       </c>
       <c r="E932" t="s">
-        <v>1725</v>
+        <v>897</v>
       </c>
       <c r="F932" t="s">
-        <v>1726</v>
+        <v>898</v>
       </c>
       <c r="G932" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H932" t="s">
         <v>4</v>
@@ -34466,7 +34472,7 @@
         <v>1728</v>
       </c>
       <c r="G933" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H933" t="s">
         <v>4</v>
@@ -34489,13 +34495,13 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>761</v>
+        <v>1729</v>
       </c>
       <c r="F934" t="s">
-        <v>762</v>
+        <v>1730</v>
       </c>
       <c r="G934" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H934" t="s">
         <v>4</v>
@@ -34518,13 +34524,13 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
-        <v>879</v>
+        <v>761</v>
       </c>
       <c r="F935" t="s">
-        <v>880</v>
+        <v>762</v>
       </c>
       <c r="G935" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H935" t="s">
         <v>4</v>
@@ -34547,10 +34553,10 @@
         <v>935</v>
       </c>
       <c r="E936" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="F936" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G936" t="n">
         <v>1</v>
@@ -34576,10 +34582,10 @@
         <v>936</v>
       </c>
       <c r="E937" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F937" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="G937" t="n">
         <v>1</v>
@@ -34605,10 +34611,10 @@
         <v>937</v>
       </c>
       <c r="E938" t="s">
-        <v>1729</v>
+        <v>891</v>
       </c>
       <c r="F938" t="s">
-        <v>1730</v>
+        <v>892</v>
       </c>
       <c r="G938" t="n">
         <v>1</v>
@@ -34634,13 +34640,13 @@
         <v>938</v>
       </c>
       <c r="E939" t="s">
-        <v>1165</v>
+        <v>1731</v>
       </c>
       <c r="F939" t="s">
-        <v>1166</v>
+        <v>1732</v>
       </c>
       <c r="G939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H939" t="s">
         <v>4</v>
@@ -34663,13 +34669,13 @@
         <v>939</v>
       </c>
       <c r="E940" t="s">
-        <v>1731</v>
+        <v>1165</v>
       </c>
       <c r="F940" t="s">
-        <v>1732</v>
+        <v>1166</v>
       </c>
       <c r="G940" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H940" t="s">
         <v>4</v>
@@ -34727,7 +34733,7 @@
         <v>1736</v>
       </c>
       <c r="G942" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H942" t="s">
         <v>4</v>
@@ -34756,7 +34762,7 @@
         <v>1738</v>
       </c>
       <c r="G943" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H943" t="s">
         <v>4</v>
@@ -34785,7 +34791,7 @@
         <v>1740</v>
       </c>
       <c r="G944" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -34814,7 +34820,7 @@
         <v>1742</v>
       </c>
       <c r="G945" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H945" t="s">
         <v>4</v>
@@ -34843,7 +34849,7 @@
         <v>1744</v>
       </c>
       <c r="G946" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H946" t="s">
         <v>4</v>
@@ -34872,7 +34878,7 @@
         <v>1746</v>
       </c>
       <c r="G947" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -34930,7 +34936,7 @@
         <v>1750</v>
       </c>
       <c r="G949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H949" t="s">
         <v>4</v>
@@ -34959,7 +34965,7 @@
         <v>1752</v>
       </c>
       <c r="G950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H950" t="s">
         <v>4</v>
@@ -34988,7 +34994,7 @@
         <v>1754</v>
       </c>
       <c r="G951" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H951" t="s">
         <v>4</v>
@@ -35104,7 +35110,7 @@
         <v>1762</v>
       </c>
       <c r="G955" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H955" t="s">
         <v>4</v>
@@ -35272,10 +35278,10 @@
         <v>960</v>
       </c>
       <c r="E961" t="s">
-        <v>489</v>
+        <v>1773</v>
       </c>
       <c r="F961" t="s">
-        <v>490</v>
+        <v>1774</v>
       </c>
       <c r="G961" t="n">
         <v>1</v>
@@ -35301,10 +35307,10 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>683</v>
+        <v>489</v>
       </c>
       <c r="F962" t="s">
-        <v>684</v>
+        <v>490</v>
       </c>
       <c r="G962" t="n">
         <v>1</v>
@@ -35330,13 +35336,13 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="F963" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="G963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -35359,10 +35365,10 @@
         <v>963</v>
       </c>
       <c r="E964" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F964" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G964" t="n">
         <v>2</v>
@@ -35388,13 +35394,13 @@
         <v>964</v>
       </c>
       <c r="E965" t="s">
-        <v>1773</v>
+        <v>657</v>
       </c>
       <c r="F965" t="s">
-        <v>1774</v>
+        <v>658</v>
       </c>
       <c r="G965" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -35423,7 +35429,7 @@
         <v>1776</v>
       </c>
       <c r="G966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -35446,10 +35452,10 @@
         <v>966</v>
       </c>
       <c r="E967" t="s">
-        <v>97</v>
+        <v>1777</v>
       </c>
       <c r="F967" t="s">
-        <v>98</v>
+        <v>1778</v>
       </c>
       <c r="G967" t="n">
         <v>2</v>
@@ -35475,13 +35481,13 @@
         <v>967</v>
       </c>
       <c r="E968" t="s">
-        <v>685</v>
+        <v>97</v>
       </c>
       <c r="F968" t="s">
-        <v>686</v>
+        <v>98</v>
       </c>
       <c r="G968" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H968" t="s">
         <v>4</v>
@@ -35504,10 +35510,10 @@
         <v>968</v>
       </c>
       <c r="E969" t="s">
-        <v>1777</v>
+        <v>685</v>
       </c>
       <c r="F969" t="s">
-        <v>1778</v>
+        <v>686</v>
       </c>
       <c r="G969" t="n">
         <v>1</v>
@@ -35539,7 +35545,7 @@
         <v>1780</v>
       </c>
       <c r="G970" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H970" t="s">
         <v>4</v>
@@ -35568,7 +35574,7 @@
         <v>1782</v>
       </c>
       <c r="G971" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H971" t="s">
         <v>4</v>
@@ -35684,7 +35690,7 @@
         <v>1790</v>
       </c>
       <c r="G975" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H975" t="s">
         <v>4</v>
@@ -35713,7 +35719,7 @@
         <v>1792</v>
       </c>
       <c r="G976" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H976" t="s">
         <v>4</v>
@@ -35800,7 +35806,7 @@
         <v>1798</v>
       </c>
       <c r="G979" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H979" t="s">
         <v>4</v>
@@ -35829,7 +35835,7 @@
         <v>1800</v>
       </c>
       <c r="G980" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H980" t="s">
         <v>4</v>
@@ -35858,7 +35864,7 @@
         <v>1802</v>
       </c>
       <c r="G981" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H981" t="s">
         <v>4</v>
@@ -35887,7 +35893,7 @@
         <v>1804</v>
       </c>
       <c r="G982" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H982" t="s">
         <v>4</v>
@@ -36142,13 +36148,13 @@
         <v>990</v>
       </c>
       <c r="E991" t="s">
-        <v>355</v>
+        <v>1821</v>
       </c>
       <c r="F991" t="s">
-        <v>356</v>
+        <v>1822</v>
       </c>
       <c r="G991" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H991" t="s">
         <v>4</v>
@@ -36171,13 +36177,13 @@
         <v>991</v>
       </c>
       <c r="E992" t="s">
-        <v>1821</v>
+        <v>355</v>
       </c>
       <c r="F992" t="s">
-        <v>1822</v>
+        <v>356</v>
       </c>
       <c r="G992" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H992" t="s">
         <v>4</v>
@@ -36438,7 +36444,7 @@
         <v>1840</v>
       </c>
       <c r="G1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1001" t="s">
         <v>4</v>
@@ -36467,7 +36473,7 @@
         <v>1842</v>
       </c>
       <c r="G1002" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1002" t="s">
         <v>4</v>
@@ -36612,7 +36618,7 @@
         <v>1852</v>
       </c>
       <c r="G1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1007" t="s">
         <v>4</v>
@@ -36641,7 +36647,7 @@
         <v>1854</v>
       </c>
       <c r="G1008" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1008" t="s">
         <v>4</v>
@@ -36873,7 +36879,7 @@
         <v>1870</v>
       </c>
       <c r="G1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1016" t="s">
         <v>4</v>
@@ -36902,7 +36908,7 @@
         <v>1872</v>
       </c>
       <c r="G1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1017" t="s">
         <v>4</v>
@@ -36954,10 +36960,10 @@
         <v>1018</v>
       </c>
       <c r="E1019" t="s">
-        <v>781</v>
+        <v>1875</v>
       </c>
       <c r="F1019" t="s">
-        <v>782</v>
+        <v>1876</v>
       </c>
       <c r="G1019" t="n">
         <v>1</v>
@@ -36983,10 +36989,10 @@
         <v>1019</v>
       </c>
       <c r="E1020" t="s">
-        <v>1875</v>
+        <v>781</v>
       </c>
       <c r="F1020" t="s">
-        <v>1876</v>
+        <v>782</v>
       </c>
       <c r="G1020" t="n">
         <v>1</v>
@@ -37099,10 +37105,10 @@
         <v>1023</v>
       </c>
       <c r="E1024" t="s">
-        <v>1097</v>
+        <v>1883</v>
       </c>
       <c r="F1024" t="s">
-        <v>1098</v>
+        <v>1884</v>
       </c>
       <c r="G1024" t="n">
         <v>1</v>
@@ -37128,10 +37134,10 @@
         <v>1024</v>
       </c>
       <c r="E1025" t="s">
-        <v>297</v>
+        <v>1097</v>
       </c>
       <c r="F1025" t="s">
-        <v>298</v>
+        <v>1098</v>
       </c>
       <c r="G1025" t="n">
         <v>1</v>
@@ -37157,10 +37163,10 @@
         <v>1025</v>
       </c>
       <c r="E1026" t="s">
-        <v>1883</v>
+        <v>297</v>
       </c>
       <c r="F1026" t="s">
-        <v>1884</v>
+        <v>298</v>
       </c>
       <c r="G1026" t="n">
         <v>1</v>
@@ -37215,10 +37221,10 @@
         <v>1027</v>
       </c>
       <c r="E1028" t="s">
-        <v>1217</v>
+        <v>1887</v>
       </c>
       <c r="F1028" t="s">
-        <v>1218</v>
+        <v>1888</v>
       </c>
       <c r="G1028" t="n">
         <v>1</v>
@@ -37244,10 +37250,10 @@
         <v>1028</v>
       </c>
       <c r="E1029" t="s">
-        <v>1887</v>
+        <v>1217</v>
       </c>
       <c r="F1029" t="s">
-        <v>1888</v>
+        <v>1218</v>
       </c>
       <c r="G1029" t="n">
         <v>1</v>
@@ -37592,10 +37598,10 @@
         <v>1040</v>
       </c>
       <c r="E1041" t="s">
-        <v>239</v>
+        <v>1911</v>
       </c>
       <c r="F1041" t="s">
-        <v>240</v>
+        <v>1912</v>
       </c>
       <c r="G1041" t="n">
         <v>1</v>
@@ -37621,10 +37627,10 @@
         <v>1041</v>
       </c>
       <c r="E1042" t="s">
-        <v>1217</v>
+        <v>239</v>
       </c>
       <c r="F1042" t="s">
-        <v>1218</v>
+        <v>240</v>
       </c>
       <c r="G1042" t="n">
         <v>1</v>
@@ -37650,10 +37656,10 @@
         <v>1042</v>
       </c>
       <c r="E1043" t="s">
-        <v>1577</v>
+        <v>1217</v>
       </c>
       <c r="F1043" t="s">
-        <v>1578</v>
+        <v>1218</v>
       </c>
       <c r="G1043" t="n">
         <v>1</v>
@@ -37679,10 +37685,10 @@
         <v>1043</v>
       </c>
       <c r="E1044" t="s">
-        <v>1911</v>
+        <v>1579</v>
       </c>
       <c r="F1044" t="s">
-        <v>1912</v>
+        <v>1580</v>
       </c>
       <c r="G1044" t="n">
         <v>1</v>
@@ -37801,7 +37807,7 @@
         <v>1920</v>
       </c>
       <c r="G1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1048" t="s">
         <v>4</v>
@@ -37830,7 +37836,7 @@
         <v>1922</v>
       </c>
       <c r="G1049" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -37853,10 +37859,10 @@
         <v>1049</v>
       </c>
       <c r="E1050" t="s">
-        <v>1599</v>
+        <v>1923</v>
       </c>
       <c r="F1050" t="s">
-        <v>1600</v>
+        <v>1924</v>
       </c>
       <c r="G1050" t="n">
         <v>1</v>
@@ -37882,10 +37888,10 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1923</v>
+        <v>1601</v>
       </c>
       <c r="F1051" t="s">
-        <v>1924</v>
+        <v>1602</v>
       </c>
       <c r="G1051" t="n">
         <v>1</v>
@@ -37998,10 +38004,10 @@
         <v>1054</v>
       </c>
       <c r="E1055" t="s">
-        <v>795</v>
+        <v>1931</v>
       </c>
       <c r="F1055" t="s">
-        <v>796</v>
+        <v>1932</v>
       </c>
       <c r="G1055" t="n">
         <v>1</v>
@@ -38027,10 +38033,10 @@
         <v>1055</v>
       </c>
       <c r="E1056" t="s">
-        <v>1931</v>
+        <v>795</v>
       </c>
       <c r="F1056" t="s">
-        <v>1932</v>
+        <v>796</v>
       </c>
       <c r="G1056" t="n">
         <v>1</v>
@@ -38178,7 +38184,7 @@
         <v>1942</v>
       </c>
       <c r="G1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1061" t="s">
         <v>4</v>
@@ -38207,7 +38213,7 @@
         <v>1944</v>
       </c>
       <c r="G1062" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1062" t="s">
         <v>4</v>
@@ -38230,13 +38236,13 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1667</v>
+        <v>1945</v>
       </c>
       <c r="F1063" t="s">
-        <v>1668</v>
+        <v>1946</v>
       </c>
       <c r="G1063" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1063" t="s">
         <v>4</v>
@@ -38259,13 +38265,13 @@
         <v>1063</v>
       </c>
       <c r="E1064" t="s">
-        <v>1945</v>
+        <v>1669</v>
       </c>
       <c r="F1064" t="s">
-        <v>1946</v>
+        <v>1670</v>
       </c>
       <c r="G1064" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1064" t="s">
         <v>4</v>
@@ -38317,13 +38323,13 @@
         <v>1065</v>
       </c>
       <c r="E1066" t="s">
-        <v>1589</v>
+        <v>1949</v>
       </c>
       <c r="F1066" t="s">
-        <v>1590</v>
+        <v>1950</v>
       </c>
       <c r="G1066" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="s">
         <v>4</v>
@@ -38346,13 +38352,13 @@
         <v>1066</v>
       </c>
       <c r="E1067" t="s">
-        <v>1949</v>
+        <v>1591</v>
       </c>
       <c r="F1067" t="s">
-        <v>1950</v>
+        <v>1592</v>
       </c>
       <c r="G1067" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38439,7 +38445,7 @@
         <v>1956</v>
       </c>
       <c r="G1070" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1070" t="s">
         <v>4</v>
@@ -38468,7 +38474,7 @@
         <v>1958</v>
       </c>
       <c r="G1071" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1071" t="s">
         <v>4</v>
@@ -38723,13 +38729,13 @@
         <v>1079</v>
       </c>
       <c r="E1080" t="s">
-        <v>489</v>
+        <v>1975</v>
       </c>
       <c r="F1080" t="s">
-        <v>490</v>
+        <v>1976</v>
       </c>
       <c r="G1080" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1080" t="s">
         <v>4</v>
@@ -38752,13 +38758,13 @@
         <v>1080</v>
       </c>
       <c r="E1081" t="s">
-        <v>1975</v>
+        <v>489</v>
       </c>
       <c r="F1081" t="s">
-        <v>1976</v>
+        <v>490</v>
       </c>
       <c r="G1081" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H1081" t="s">
         <v>4</v>
@@ -38903,7 +38909,7 @@
         <v>1986</v>
       </c>
       <c r="G1086" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1086" t="s">
         <v>4</v>
@@ -38932,7 +38938,7 @@
         <v>1988</v>
       </c>
       <c r="G1087" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1087" t="s">
         <v>4</v>
@@ -38961,7 +38967,7 @@
         <v>1990</v>
       </c>
       <c r="G1088" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H1088" t="s">
         <v>4</v>
@@ -38990,7 +38996,7 @@
         <v>1992</v>
       </c>
       <c r="G1089" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H1089" t="s">
         <v>4</v>
@@ -39019,7 +39025,7 @@
         <v>1994</v>
       </c>
       <c r="G1090" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1090" t="s">
         <v>4</v>
@@ -39135,7 +39141,7 @@
         <v>2002</v>
       </c>
       <c r="G1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1094" t="s">
         <v>4</v>
@@ -39164,7 +39170,7 @@
         <v>2004</v>
       </c>
       <c r="G1095" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1095" t="s">
         <v>4</v>
@@ -40614,7 +40620,7 @@
         <v>2104</v>
       </c>
       <c r="G1145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1145" t="s">
         <v>4</v>
@@ -40643,7 +40649,7 @@
         <v>2106</v>
       </c>
       <c r="G1146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1146" t="s">
         <v>4</v>
@@ -41194,7 +41200,7 @@
         <v>2144</v>
       </c>
       <c r="G1165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1165" t="s">
         <v>4</v>
@@ -41223,7 +41229,7 @@
         <v>2146</v>
       </c>
       <c r="G1166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1166" t="s">
         <v>4</v>
@@ -41310,7 +41316,7 @@
         <v>2152</v>
       </c>
       <c r="G1169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1169" t="s">
         <v>4</v>
@@ -41339,7 +41345,7 @@
         <v>2154</v>
       </c>
       <c r="G1170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1170" t="s">
         <v>4</v>
@@ -42093,7 +42099,7 @@
         <v>2206</v>
       </c>
       <c r="G1196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1196" t="s">
         <v>4</v>
@@ -42122,7 +42128,7 @@
         <v>2208</v>
       </c>
       <c r="G1197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1197" t="s">
         <v>4</v>
@@ -42905,7 +42911,7 @@
         <v>2262</v>
       </c>
       <c r="G1224" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1224" t="s">
         <v>4</v>
@@ -42934,7 +42940,7 @@
         <v>2264</v>
       </c>
       <c r="G1225" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1225" t="s">
         <v>4</v>
@@ -43224,7 +43230,7 @@
         <v>2284</v>
       </c>
       <c r="G1235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1235" t="s">
         <v>4</v>
@@ -43253,7 +43259,7 @@
         <v>2286</v>
       </c>
       <c r="G1236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1236" t="s">
         <v>4</v>
@@ -43282,7 +43288,7 @@
         <v>2288</v>
       </c>
       <c r="G1237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1237" t="s">
         <v>4</v>
@@ -43311,7 +43317,7 @@
         <v>2290</v>
       </c>
       <c r="G1238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1238" t="s">
         <v>4</v>
@@ -43427,7 +43433,7 @@
         <v>2298</v>
       </c>
       <c r="G1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1242" t="s">
         <v>4</v>
@@ -43450,13 +43456,13 @@
         <v>1242</v>
       </c>
       <c r="E1243" t="s">
-        <v>305</v>
+        <v>2299</v>
       </c>
       <c r="F1243" t="s">
-        <v>306</v>
+        <v>2300</v>
       </c>
       <c r="G1243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1243" t="s">
         <v>4</v>
@@ -43479,10 +43485,10 @@
         <v>1243</v>
       </c>
       <c r="E1244" t="s">
-        <v>2299</v>
+        <v>305</v>
       </c>
       <c r="F1244" t="s">
-        <v>2300</v>
+        <v>306</v>
       </c>
       <c r="G1244" t="n">
         <v>1</v>
@@ -43537,13 +43543,13 @@
         <v>1245</v>
       </c>
       <c r="E1246" t="s">
-        <v>381</v>
+        <v>2303</v>
       </c>
       <c r="F1246" t="s">
-        <v>382</v>
+        <v>2304</v>
       </c>
       <c r="G1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1246" t="s">
         <v>4</v>
@@ -43566,13 +43572,13 @@
         <v>1246</v>
       </c>
       <c r="E1247" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="F1247" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="G1247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1247" t="s">
         <v>4</v>
@@ -43595,10 +43601,10 @@
         <v>1247</v>
       </c>
       <c r="E1248" t="s">
-        <v>1479</v>
+        <v>349</v>
       </c>
       <c r="F1248" t="s">
-        <v>1480</v>
+        <v>350</v>
       </c>
       <c r="G1248" t="n">
         <v>1</v>
@@ -43624,10 +43630,10 @@
         <v>1248</v>
       </c>
       <c r="E1249" t="s">
-        <v>1233</v>
+        <v>1481</v>
       </c>
       <c r="F1249" t="s">
-        <v>1234</v>
+        <v>1482</v>
       </c>
       <c r="G1249" t="n">
         <v>1</v>
@@ -43653,10 +43659,10 @@
         <v>1249</v>
       </c>
       <c r="E1250" t="s">
-        <v>2303</v>
+        <v>1233</v>
       </c>
       <c r="F1250" t="s">
-        <v>2304</v>
+        <v>1234</v>
       </c>
       <c r="G1250" t="n">
         <v>1</v>
@@ -43804,7 +43810,7 @@
         <v>2314</v>
       </c>
       <c r="G1255" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1255" t="s">
         <v>4</v>
@@ -43833,7 +43839,7 @@
         <v>2316</v>
       </c>
       <c r="G1256" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1256" t="s">
         <v>4</v>
@@ -44181,7 +44187,7 @@
         <v>2340</v>
       </c>
       <c r="G1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1268" t="s">
         <v>4</v>
@@ -44210,7 +44216,7 @@
         <v>2342</v>
       </c>
       <c r="G1269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1269" t="s">
         <v>4</v>
@@ -44268,7 +44274,7 @@
         <v>2346</v>
       </c>
       <c r="G1271" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H1271" t="s">
         <v>4</v>
@@ -44291,13 +44297,13 @@
         <v>1271</v>
       </c>
       <c r="E1272" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="F1272" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="G1272" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H1272" t="s">
         <v>4</v>
@@ -44320,18 +44326,47 @@
         <v>1272</v>
       </c>
       <c r="E1273" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="F1273" t="s">
         <v>2349</v>
       </c>
       <c r="G1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9">
+      <c r="A1274" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>1273</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G1274" t="n">
         <v>2</v>
       </c>
-      <c r="H1273" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1273" t="n">
+      <c r="H1274" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1274" t="n">
         <v>3</v>
       </c>
     </row>
